--- a/data/sheet/2022/Schedule_Radiožurnál_2022W07_2022-02-14_2022-02-20.xlsx
+++ b/data/sheet/2022/Schedule_Radiožurnál_2022W07_2022-02-14_2022-02-20.xlsx
@@ -517,11 +517,11 @@
         <v>44612</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>44612.00625</v>
+        <v>44612.00557870371</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>00:09:00</t>
+          <t>00:08:02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -554,14 +554,14 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44612.00694444445</v>
+        <v>44612.00666666667</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44612.00763888889</v>
+        <v>44612.00797453704</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:53</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -594,14 +594,14 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44612.00763888889</v>
+        <v>44612.00797453704</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>44612.04166666666</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>00:49:00</t>
+          <t>00:48:31</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -641,11 +641,11 @@
         <v>44612.02083333334</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44612.02222222222</v>
+        <v>44612.02229166667</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:02:06</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -678,14 +678,14 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44612.02291666667</v>
+        <v>44612.02326388889</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44612.02361111111</v>
+        <v>44612.02428240741</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:28</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -721,11 +721,11 @@
         <v>44612.04166666666</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44612.04444444444</v>
+        <v>44612.04471064815</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>00:04:00</t>
+          <t>00:04:23</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -758,14 +758,14 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44612.04513888889</v>
+        <v>44612.04561342593</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44612.04583333333</v>
+        <v>44612.04673611111</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:37</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -798,14 +798,14 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44612.04583333333</v>
+        <v>44612.04673611111</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>44612.08333333334</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>00:54:00</t>
+          <t>00:52:42</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -845,11 +845,11 @@
         <v>44612.0625</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44612.06388888889</v>
+        <v>44612.06407407407</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:02:16</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -882,14 +882,14 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44612.06458333333</v>
+        <v>44612.06504629629</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44612.06527777778</v>
+        <v>44612.06570601852</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:00:57</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -925,11 +925,11 @@
         <v>44612.08333333334</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>44612.08611111111</v>
+        <v>44612.0865162037</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>00:04:00</t>
+          <t>00:04:35</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -962,14 +962,14 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44612.08680555555</v>
+        <v>44612.08734953704</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44612.0875</v>
+        <v>44612.08850694444</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:40</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1002,14 +1002,14 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44612.0875</v>
+        <v>44612.08850694444</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>44612.125</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>00:54:00</t>
+          <t>00:52:33</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1049,11 +1049,11 @@
         <v>44612.10416666666</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44612.10555555556</v>
+        <v>44612.10568287037</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:02:11</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1086,14 +1086,14 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44612.10625</v>
+        <v>44612.10664351852</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44612.10694444444</v>
+        <v>44612.1075</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1129,11 +1129,11 @@
         <v>44612.125</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44612.12777777778</v>
+        <v>44612.12809027778</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>00:04:00</t>
+          <t>00:04:27</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1166,14 +1166,14 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44612.12847222222</v>
+        <v>44612.12888888889</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44612.12916666667</v>
+        <v>44612.13020833334</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:54</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1206,14 +1206,14 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44612.12916666667</v>
+        <v>44612.13020833334</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>44612.16666666666</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>00:54:00</t>
+          <t>00:52:30</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1253,11 +1253,11 @@
         <v>44612.14583333334</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>44612.14722222222</v>
+        <v>44612.14751157408</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:02:25</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1290,14 +1290,14 @@
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44612.14791666667</v>
+        <v>44612.14840277778</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>44612.14861111111</v>
+        <v>44612.14925925926</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:14</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1333,11 +1333,11 @@
         <v>44612.16666666666</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>44612.16944444444</v>
+        <v>44612.16986111111</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>00:04:00</t>
+          <t>00:04:36</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1370,14 +1370,14 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44612.17013888889</v>
+        <v>44612.17090277778</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>44612.17083333333</v>
+        <v>44612.17221064815</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:53</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1410,14 +1410,14 @@
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44612.17083333333</v>
+        <v>44612.17221064815</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>44612.20833333334</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>00:54:00</t>
+          <t>00:52:01</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1457,11 +1457,11 @@
         <v>44612.1875</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>44612.18888888889</v>
+        <v>44612.18918981482</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:02:26</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1494,14 +1494,14 @@
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44612.18958333333</v>
+        <v>44612.19</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>44612.19027777778</v>
+        <v>44612.19090277778</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:18</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -1574,14 +1574,14 @@
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44612.21180555555</v>
+        <v>44612.21208333333</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>44612.2125</v>
+        <v>44612.21331018519</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:46</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -1614,14 +1614,14 @@
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44612.2125</v>
+        <v>44612.21331018519</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>44612.25</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>00:54:00</t>
+          <t>00:52:50</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1661,11 +1661,11 @@
         <v>44612.22916666666</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44612.23090277778</v>
+        <v>44612.23018518519</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>00:02:30</t>
+          <t>00:01:28</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -1698,14 +1698,14 @@
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44612.23194444444</v>
+        <v>44612.23172453704</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>44612.23263888889</v>
+        <v>44612.23245370371</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:03</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -1741,11 +1741,11 @@
         <v>44612.25</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44612.253125</v>
+        <v>44612.25282407407</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:04:04</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -1778,14 +1778,14 @@
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44612.25381944444</v>
+        <v>44612.25385416667</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>44612.25451388889</v>
+        <v>44612.25511574074</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:49</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -1818,14 +1818,14 @@
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44612.25451388889</v>
+        <v>44612.25511574074</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>44612.29166666666</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>00:53:30</t>
+          <t>00:52:38</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1865,11 +1865,11 @@
         <v>44612.26041666666</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44612.26111111111</v>
+        <v>44612.26101851852</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:00:52</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -1905,11 +1905,11 @@
         <v>44612.27083333334</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44612.27256944445</v>
+        <v>44612.27209490741</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>00:02:30</t>
+          <t>00:01:49</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -1942,14 +1942,14 @@
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44612.27361111111</v>
+        <v>44612.2733912037</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>44612.27430555555</v>
+        <v>44612.27429398148</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:18</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -1985,11 +1985,11 @@
         <v>44612.28125</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>44612.28159722222</v>
+        <v>44612.28170138889</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:00:39</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -2025,11 +2025,11 @@
         <v>44612.29166666666</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>44612.29479166667</v>
+        <v>44612.2944212963</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:03:58</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -2062,14 +2062,14 @@
         </is>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44612.29548611111</v>
+        <v>44612.29542824074</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44612.29618055555</v>
+        <v>44612.29671296296</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:51</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -2102,14 +2102,14 @@
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44612.29618055555</v>
+        <v>44612.29671296296</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>44612.33333333334</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>00:53:30</t>
+          <t>00:52:44</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2189,11 +2189,11 @@
         <v>44612.3125</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44612.31423611111</v>
+        <v>44612.31364583333</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>00:02:30</t>
+          <t>00:01:39</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -2226,14 +2226,14 @@
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44612.31527777778</v>
+        <v>44612.31537037037</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44612.31597222222</v>
+        <v>44612.31636574074</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:26</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -2269,11 +2269,11 @@
         <v>44612.32291666666</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>44612.32326388889</v>
+        <v>44612.3234837963</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:00:49</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -2309,11 +2309,11 @@
         <v>44612.33333333334</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44612.33645833333</v>
+        <v>44612.33623842592</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:04:11</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -2346,14 +2346,14 @@
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44612.33715277778</v>
+        <v>44612.33737268519</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44612.33784722222</v>
+        <v>44612.33836805556</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:26</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -2386,14 +2386,14 @@
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44612.33784722222</v>
+        <v>44612.33836805556</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>44612.375</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>00:53:30</t>
+          <t>00:52:45</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2433,11 +2433,11 @@
         <v>44612.34375</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44612.34444444445</v>
+        <v>44612.34423611111</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:00:42</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -2473,11 +2473,11 @@
         <v>44612.35416666666</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44612.35555555556</v>
+        <v>44612.35525462963</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:01:34</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -2510,14 +2510,14 @@
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44612.35694444444</v>
+        <v>44612.35719907407</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>44612.35763888889</v>
+        <v>44612.35803240741</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -2589,11 +2589,11 @@
         <v>44612.36458333334</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>44612.36493055556</v>
+        <v>44612.36498842593</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:00:35</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -2629,11 +2629,11 @@
         <v>44612.375</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>44612.37743055556</v>
+        <v>44612.37774305556</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>00:03:30</t>
+          <t>00:03:57</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -2666,14 +2666,14 @@
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44612.37847222222</v>
+        <v>44612.37871527778</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>44612.37916666667</v>
+        <v>44612.37969907407</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:25</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -2706,14 +2706,14 @@
         </is>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44612.37916666667</v>
+        <v>44612.37976851852</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>44612.41666666666</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>00:54:00</t>
+          <t>00:53:08</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2753,11 +2753,11 @@
         <v>44612.39583333334</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>44612.39722222222</v>
+        <v>44612.39725694444</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:02:03</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -2790,14 +2790,14 @@
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44612.39826388889</v>
+        <v>44612.39819444445</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>44612.39895833333</v>
+        <v>44612.39920138889</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:27</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -2833,11 +2833,11 @@
         <v>44612.41666666666</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>44612.41979166667</v>
+        <v>44612.41978009259</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:04:29</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -2870,14 +2870,14 @@
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44612.42083333333</v>
+        <v>44612.4209375</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>44612.42152777778</v>
+        <v>44612.42211805555</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:42</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -2910,14 +2910,14 @@
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44612.42152777778</v>
+        <v>44612.42211805555</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>44612.45833333334</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>00:53:00</t>
+          <t>00:52:09</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2957,11 +2957,11 @@
         <v>44612.4375</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44612.43888888889</v>
+        <v>44612.43900462963</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:02:10</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -2994,14 +2994,14 @@
         </is>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44612.43993055556</v>
+        <v>44612.44020833333</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44612.440625</v>
+        <v>44612.44104166667</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -3037,11 +3037,11 @@
         <v>44612.45833333334</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>44612.46145833333</v>
+        <v>44612.46115740741</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:04:04</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -3074,14 +3074,14 @@
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44612.4625</v>
+        <v>44612.46225694445</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44612.46319444444</v>
+        <v>44612.46326388889</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:27</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -3114,14 +3114,14 @@
         </is>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44612.46319444444</v>
+        <v>44612.46326388889</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>44612.5</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>00:53:00</t>
+          <t>00:52:54</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3161,11 +3161,11 @@
         <v>44612.47916666666</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44612.48055555556</v>
+        <v>44612.48046296297</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:01:52</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -3198,14 +3198,14 @@
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44612.48125</v>
+        <v>44612.48145833334</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>44612.48194444444</v>
+        <v>44612.48245370371</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:01:26</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -3241,11 +3241,11 @@
         <v>44612.5</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44612.50590277778</v>
+        <v>44612.50557870371</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>00:08:30</t>
+          <t>00:08:02</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -3278,14 +3278,14 @@
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44612.50694444445</v>
+        <v>44612.50644675926</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>44612.50833333333</v>
+        <v>44612.50763888889</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:01:43</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -3318,14 +3318,14 @@
         </is>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44612.50833333333</v>
+        <v>44612.50763888889</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>44612.52083333334</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>00:18:00</t>
+          <t>00:19:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -3361,11 +3361,11 @@
         <v>44612.52083333334</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>44612.52222222222</v>
+        <v>44612.52233796296</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:02:10</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -3398,14 +3398,14 @@
         </is>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44612.52326388889</v>
+        <v>44612.5234837963</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>44612.54166666666</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>00:26:30</t>
+          <t>00:26:11</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3445,11 +3445,11 @@
         <v>44612.54166666666</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>44612.54479166667</v>
+        <v>44612.54445601852</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:04:01</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -3482,14 +3482,14 @@
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44612.54583333333</v>
+        <v>44612.54564814815</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>44612.58333333334</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>00:54:00</t>
+          <t>00:54:16</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3529,11 +3529,11 @@
         <v>44612.5625</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44612.56388888889</v>
+        <v>44612.56398148148</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:02:08</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -3569,11 +3569,11 @@
         <v>44612.58333333334</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>44612.58645833333</v>
+        <v>44612.58657407408</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:04:40</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -3606,14 +3606,14 @@
         </is>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44612.5875</v>
+        <v>44612.5877662037</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>44612.625</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>00:54:00</t>
+          <t>00:53:37</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3653,11 +3653,11 @@
         <v>44612.60416666666</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>44612.60555555556</v>
+        <v>44612.60554398148</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:01:59</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -3693,11 +3693,11 @@
         <v>44612.625</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>44612.628125</v>
+        <v>44612.62789351852</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:04:10</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -3730,14 +3730,14 @@
         </is>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44612.62916666667</v>
+        <v>44612.62899305556</v>
       </c>
       <c r="G81" s="2" t="n">
         <v>44612.66666666666</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>00:54:00</t>
+          <t>00:54:15</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3777,11 +3777,11 @@
         <v>44612.64583333334</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>44612.64722222222</v>
+        <v>44612.64751157408</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:02:25</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -3817,11 +3817,11 @@
         <v>44612.66666666666</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>44612.66979166667</v>
+        <v>44612.67024305555</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:05:09</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -3854,14 +3854,14 @@
         </is>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44612.67083333333</v>
+        <v>44612.67121527778</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>44612.70833333334</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>00:54:00</t>
+          <t>00:53:27</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3901,11 +3901,11 @@
         <v>44612.6875</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>44612.68888888889</v>
+        <v>44612.68878472222</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:01:51</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -3941,11 +3941,11 @@
         <v>44612.70833333334</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>44612.71145833333</v>
+        <v>44612.7115162037</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:04:35</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -3978,14 +3978,14 @@
         </is>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44612.7125</v>
+        <v>44612.71273148148</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>44612.75</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>00:54:00</t>
+          <t>00:53:40</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4025,11 +4025,11 @@
         <v>44612.72916666666</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>44612.73055555556</v>
+        <v>44612.73059027778</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:02:03</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -4065,11 +4065,11 @@
         <v>44612.75</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>44612.75694444445</v>
+        <v>44612.75584490741</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>00:08:25</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -4102,14 +4102,14 @@
         </is>
       </c>
       <c r="F90" s="2" t="n">
-        <v>44612.75762731482</v>
+        <v>44612.75689814815</v>
       </c>
       <c r="G90" s="2" t="n">
         <v>44612.79166666666</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>00:49:01</t>
+          <t>00:50:04</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4149,11 +4149,11 @@
         <v>44612.77083333334</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>44612.77222222222</v>
+        <v>44612.77290509259</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:02:59</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -4189,11 +4189,11 @@
         <v>44612.79166666666</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>44612.79479166667</v>
+        <v>44612.79516203704</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:05:02</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -4226,14 +4226,14 @@
         </is>
       </c>
       <c r="F93" s="2" t="n">
-        <v>44612.79583333333</v>
+        <v>44612.79625</v>
       </c>
       <c r="G93" s="2" t="n">
         <v>44612.83333333334</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>00:54:00</t>
+          <t>00:53:24</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4273,11 +4273,11 @@
         <v>44612.8125</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>44612.81388888889</v>
+        <v>44612.81439814815</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:02:44</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -4313,11 +4313,11 @@
         <v>44612.83333333334</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>44612.83611111111</v>
+        <v>44612.83622685185</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>00:04:00</t>
+          <t>00:04:10</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -4346,14 +4346,14 @@
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" s="2" t="n">
-        <v>44612.83680555555</v>
+        <v>44612.83726851852</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>44612.85416666666</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:24:20</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -4389,11 +4389,11 @@
         <v>44612.85416666666</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>44612.85555555556</v>
+        <v>44612.85568287037</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:02:11</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -4426,14 +4426,14 @@
         </is>
       </c>
       <c r="F98" s="2" t="n">
-        <v>44612.85625</v>
+        <v>44612.85695601852</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>44612.875</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:59</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4586,14 +4586,14 @@
         </is>
       </c>
       <c r="F102" s="2" t="n">
-        <v>44612.91666666666</v>
+        <v>44612.91663194444</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>44612.91944444444</v>
+        <v>44612.91983796296</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>00:04:00</t>
+          <t>00:04:37</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -4626,14 +4626,14 @@
         </is>
       </c>
       <c r="F103" s="2" t="n">
-        <v>44612.92013888889</v>
+        <v>44612.92097222222</v>
       </c>
       <c r="G103" s="2" t="n">
         <v>44612.95833333334</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>00:55:00</t>
+          <t>00:53:48</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -4673,11 +4673,11 @@
         <v>44612.9375</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>44612.93888888889</v>
+        <v>44612.93895833333</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:02:06</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -4713,11 +4713,11 @@
         <v>44612.95833333334</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>44612.96111111111</v>
+        <v>44612.96103009259</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>00:04:00</t>
+          <t>00:03:53</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -4750,14 +4750,14 @@
         </is>
       </c>
       <c r="F106" s="2" t="n">
-        <v>44612.96180555555</v>
+        <v>44612.96209490741</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>44613</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>00:55:00</t>
+          <t>00:54:35</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -4797,11 +4797,11 @@
         <v>44612.97916666666</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>44612.98055555556</v>
+        <v>44612.98052083333</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:01:57</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
